--- a/similarities/split_global/harmonic_similarity_timestamps_153.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_153.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,726 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:00:00.240000', '0:00:07.820000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:11.070127', '0:00:13.723731')]</t>
+          <t>('0:00:36.400000', '0:00:55.360000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=0.24</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=36.4</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>isophonics_235</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C/5', 'G', 'C/5', 'G']]</t>
+          <t>['F', 'Bb:7', 'F']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E', 'A', 'E']]</t>
+          <t>['Bb', 'Eb:7', 'Bb']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:12.094553', '0:00:20.193974')]</t>
+          <t>('0:00:09.880000', '0:00:15.540000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:04.605000', '0:00:21.095000')]</t>
+          <t>('0:00:00.459543', '0:00:22.338129')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=12.094553']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=9.88</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=4.605']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=0.459543</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>isophonics_128</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G', 'C:7', 'G', 'D:7']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E', 'A:7', 'E', 'B:7']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:03.010000', '0:00:17.220000')]</t>
+          <t>('0:00:10.634761', '0:00:15.986961')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:18.719002', '0:00:31.617687')]</t>
+          <t>('0:01:15.800000', '0:01:19.600000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=3.01']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=18.719002']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>isophonics_48</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>isophonics_259</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['D#:7/C#', 'G#:maj/C', 'D#:maj/A#'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['F#:min', 'A', 'D']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['F#:min', 'A', 'D']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:17.980000', '0:00:26.320000'), ('0:01:03.460000', '0:01:05.780000'), ('0:01:05.280000', '0:01:14.480000')]</t>
+          <t>('0:00:20.096214', '0:00:32.367960')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:53.320000', '0:01:01.840000'), ('0:00:58.460000', '0:01:03.460000'), ('0:01:10.060000', '0:01:20.280000')]</t>
+          <t>('0:00:45.682000', '0:00:52.884000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=17.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=63.46', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=20.096214</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=53.32', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=58.46', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=70.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=45.682</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>jaah_14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>isophonics_56</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:7', 'Gb']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:22.947687', '0:00:32.374988')]</t>
+          <t>('0:00:46.590000', '0:00:53.060000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:51.800000', '0:00:59.900000')]</t>
+          <t>('0:01:58.584331', '0:02:07.280204')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=22.947687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=46.59</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=51.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-56#t=118.584331</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G', 'C']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:maj', 'A:maj', 'D:maj', 'G:maj']]</t>
+          <t>['F:maj', 'C:7/A#', 'F:maj/A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:42.394399', '0:00:52.715668')]</t>
+          <t>('0:01:03.100000', '0:01:04.500000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:59.331000', '0:01:07.056000')]</t>
+          <t>('0:01:14.900000', '0:01:26.120000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=42.394399']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=63.1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=59.331']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:min', 'B:dim7'], ['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Ab:min', 'D:dim7'], ['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:14.880000', '0:00:18.680000'), ('0:00:19.860000', '0:00:22.320000')]</t>
+          <t>('0:01:00.760000', '0:01:04.360000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:06.590000', '0:00:10.120000'), ('0:00:15.730000', '0:00:17.850000')]</t>
+          <t>('0:00:15.124263', '0:00:20.058503')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=14.88', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=19.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=6.59', 'https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=15.73']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D/3']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:08.900000', '0:00:10.620000')]</t>
+          <t>('0:00:06.880000', '0:00:15.960000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:08.669000', '0:01:14.662000')]</t>
+          <t>('0:00:00.240000', '0:00:05.980000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=6.88</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=68.669']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=0.24</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>isophonics_164</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:10.634761', '0:00:15.986961')]</t>
+          <t>('0:00:41.080000', '0:00:42.940000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:48.001000', '0:00:54.307000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=41.08</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=48.001</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_196</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['A/3', 'D', 'A']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Eb:maj', 'Bb:maj', 'Eb:maj'], ['Bb/3', 'Eb:maj', 'Bb/3']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:21.722199', '0:00:26.760929'), ('0:01:05.810340', '0:01:11.679931')]</t>
+          <t>('0:00:17.160000', '0:00:19.520000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:03:37.911000', '0:03:42.528000'), ('0:00:38.041000', '0:00:42.375000')]</t>
+          <t>('0:00:08.700000', '0:00:18.300000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=21.722199', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=17.16</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.911', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=38.041']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=8.7</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['Ab:7', 'Db', 'Db:min', 'Ab']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['E:7/3', 'A', 'A:min/b3', 'E']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:47.580000', '0:00:50.040000')]</t>
+          <t>('0:00:47.890000', '0:00:52.970000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:11.200000', '0:02:16.340000')]</t>
+          <t>('0:00:21.908049', '0:00:27.840748')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=47.89</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=21.908049</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>jaah_69</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:36.420000', '0:00:39.460000'), ('0:00:56.800000', '0:01:01.480000')]</t>
+          <t>('0:00:33.480000', '0:00:45.590000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:43.380000', '0:01:57.340000'), ('0:01:53.920000', '0:02:08.800000')]</t>
+          <t>('0:04:13.840000', '0:04:19.880000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=36.42', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=56.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=103.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=113.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=253.84</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab:maj', 'Eb/3']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:03.509000', '0:00:10.013000')]</t>
+          <t>('0:00:44.200000', '0:00:59.980000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:26.006000', '0:00:29.321000')]</t>
+          <t>('0:01:04.300000', '0:01:05.720000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=3.509']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=44.2</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=26.006']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:03.820000', '0:00:08.620000')]</t>
+          <t>('0:00:25.180000', '0:00:48.160000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:16.580000', '0:00:22.660000')]</t>
+          <t>('0:00:00.580000', '0:00:10.180000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=3.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=25.18</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=16.58']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:56.760000', '0:01:06.040000')]</t>
+          <t>('0:00:00.780000', '0:00:05.980000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:07.100000', '0:00:27.920000')]</t>
+          <t>('0:00:13.980000', '0:00:21.500000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=56.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=7.1']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=13.98</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
